--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.593549</v>
+        <v>1.035827</v>
       </c>
       <c r="H2">
-        <v>4.780647</v>
+        <v>3.107481</v>
       </c>
       <c r="I2">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="J2">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N2">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O2">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P2">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q2">
-        <v>4.820229694794001</v>
+        <v>0.5318250018856667</v>
       </c>
       <c r="R2">
-        <v>43.382067253146</v>
+        <v>4.786425016970999</v>
       </c>
       <c r="S2">
-        <v>0.1474588715855976</v>
+        <v>0.02515445940073413</v>
       </c>
       <c r="T2">
-        <v>0.1474588715855976</v>
+        <v>0.02515445940073412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.593549</v>
+        <v>1.035827</v>
       </c>
       <c r="H3">
-        <v>4.780647</v>
+        <v>3.107481</v>
       </c>
       <c r="I3">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="J3">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P3">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q3">
-        <v>2.591334302043001</v>
+        <v>1.684400063055667</v>
       </c>
       <c r="R3">
-        <v>23.322008718387</v>
+        <v>15.159600567501</v>
       </c>
       <c r="S3">
-        <v>0.07927324137540777</v>
+        <v>0.07966938908569146</v>
       </c>
       <c r="T3">
-        <v>0.07927324137540775</v>
+        <v>0.07966938908569146</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.593549</v>
+        <v>1.035827</v>
       </c>
       <c r="H4">
-        <v>4.780647</v>
+        <v>3.107481</v>
       </c>
       <c r="I4">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="J4">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N4">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O4">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P4">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q4">
-        <v>11.950004828412</v>
+        <v>10.622141749115</v>
       </c>
       <c r="R4">
-        <v>107.550043455708</v>
+        <v>95.59927574203499</v>
       </c>
       <c r="S4">
-        <v>0.3655705929000099</v>
+        <v>0.5024100642684687</v>
       </c>
       <c r="T4">
-        <v>0.3655705929000098</v>
+        <v>0.5024100642684687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.593549</v>
+        <v>1.035827</v>
       </c>
       <c r="H5">
-        <v>4.780647</v>
+        <v>3.107481</v>
       </c>
       <c r="I5">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="J5">
-        <v>0.8185302145731395</v>
+        <v>0.7561862865052227</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N5">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O5">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P5">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q5">
-        <v>7.395069171138</v>
+        <v>3.149206873765333</v>
       </c>
       <c r="R5">
-        <v>66.555622540242</v>
+        <v>28.342861863888</v>
       </c>
       <c r="S5">
-        <v>0.2262275087121243</v>
+        <v>0.1489523737503284</v>
       </c>
       <c r="T5">
-        <v>0.2262275087121242</v>
+        <v>0.1489523737503284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.353293</v>
+        <v>0.333977</v>
       </c>
       <c r="H6">
-        <v>1.059879</v>
+        <v>1.001931</v>
       </c>
       <c r="I6">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="J6">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.024839333333334</v>
+        <v>0.5134303333333333</v>
       </c>
       <c r="N6">
-        <v>9.074518000000001</v>
+        <v>1.540291</v>
       </c>
       <c r="O6">
-        <v>0.1801507982970389</v>
+        <v>0.03326489761800302</v>
       </c>
       <c r="P6">
-        <v>0.1801507982970388</v>
+        <v>0.03326489761800301</v>
       </c>
       <c r="Q6">
-        <v>1.068654562591334</v>
+        <v>0.1714739224356666</v>
       </c>
       <c r="R6">
-        <v>9.617891063322002</v>
+        <v>1.543265301921</v>
       </c>
       <c r="S6">
-        <v>0.03269192671144127</v>
+        <v>0.008110438217268888</v>
       </c>
       <c r="T6">
-        <v>0.03269192671144126</v>
+        <v>0.008110438217268888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.353293</v>
+        <v>0.333977</v>
       </c>
       <c r="H7">
-        <v>1.059879</v>
+        <v>1.001931</v>
       </c>
       <c r="I7">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="J7">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.626140333333334</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>4.878421</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.09684827751501938</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="P7">
-        <v>0.09684827751501936</v>
+        <v>0.1053568287437347</v>
       </c>
       <c r="Q7">
-        <v>0.5745039967843334</v>
+        <v>0.5430934701056666</v>
       </c>
       <c r="R7">
-        <v>5.170535971059</v>
+        <v>4.887841230950999</v>
       </c>
       <c r="S7">
-        <v>0.01757503613961161</v>
+        <v>0.02568743965804325</v>
       </c>
       <c r="T7">
-        <v>0.0175750361396116</v>
+        <v>0.02568743965804326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.353293</v>
+        <v>0.333977</v>
       </c>
       <c r="H8">
-        <v>1.059879</v>
+        <v>1.001931</v>
       </c>
       <c r="I8">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="J8">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.498988000000001</v>
+        <v>10.254745</v>
       </c>
       <c r="N8">
-        <v>22.496964</v>
+        <v>30.764235</v>
       </c>
       <c r="O8">
-        <v>0.4466183243958241</v>
+        <v>0.6643998618255804</v>
       </c>
       <c r="P8">
-        <v>0.446618324395824</v>
+        <v>0.6643998618255803</v>
       </c>
       <c r="Q8">
-        <v>2.649339967484</v>
+        <v>3.424848970864999</v>
       </c>
       <c r="R8">
-        <v>23.844059707356</v>
+        <v>30.823640737785</v>
       </c>
       <c r="S8">
-        <v>0.08104773149581418</v>
+        <v>0.1619897975571117</v>
       </c>
       <c r="T8">
-        <v>0.08104773149581417</v>
+        <v>0.1619897975571117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.353293</v>
+        <v>0.333977</v>
       </c>
       <c r="H9">
-        <v>1.059879</v>
+        <v>1.001931</v>
       </c>
       <c r="I9">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="J9">
-        <v>0.1814697854268605</v>
+        <v>0.2438137134947773</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.640628666666666</v>
+        <v>3.040282666666667</v>
       </c>
       <c r="N9">
-        <v>13.921886</v>
+        <v>9.120848000000001</v>
       </c>
       <c r="O9">
-        <v>0.2763825997921178</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="P9">
-        <v>0.2763825997921177</v>
+        <v>0.1969784118126819</v>
       </c>
       <c r="Q9">
-        <v>1.639501623532667</v>
+        <v>1.015384484165333</v>
       </c>
       <c r="R9">
-        <v>14.755514611794</v>
+        <v>9.138460357488</v>
       </c>
       <c r="S9">
-        <v>0.05015509107999348</v>
+        <v>0.04802603806235348</v>
       </c>
       <c r="T9">
-        <v>0.05015509107999346</v>
+        <v>0.04802603806235348</v>
       </c>
     </row>
   </sheetData>
